--- a/src/public/exports/PhuLucGiangVienMoi.xlsx
+++ b/src/public/exports/PhuLucGiangVienMoi.xlsx
@@ -127,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -164,10 +164,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Times New Roman"/>
     </font>
     <font>
@@ -214,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -241,11 +237,8 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -707,22 +700,22 @@
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J7" s="6" t="s">
@@ -735,117 +728,117 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>101</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>1</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <v>4</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="11">
         <v>100000</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="11">
         <v>10100000</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="11">
         <v>1010000</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="11">
         <v>9090000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>101</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>1</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="11">
         <v>4</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="11">
         <v>100000</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="11">
         <v>10100000</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="11">
         <v>1010000</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="11">
         <v>9090000</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="13">
+      <c r="B10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="12">
         <v>202</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="13">
+      <c r="E10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="12">
         <v>20200000</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="12">
         <v>2020000</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="12">
         <v>18180000</v>
       </c>
     </row>
@@ -984,22 +977,22 @@
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J7" s="6" t="s">
@@ -1012,193 +1005,193 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>125</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>1</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <v>4</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="11">
         <v>100000</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="11">
         <v>12500000</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="11">
         <v>1250000</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="11">
         <v>11250000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>125</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>1</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="11">
         <v>4</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="11">
         <v>100000</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="11">
         <v>12500000</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="11">
         <v>1250000</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="11">
         <v>11250000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>125</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>1</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <v>4</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="11">
         <v>100000</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="11">
         <v>12500000</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="11">
         <v>1250000</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="11">
         <v>11250000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>125</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>1</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <v>4</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="11">
         <v>100000</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="11">
         <v>12500000</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="11">
         <v>1250000</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="11">
         <v>11250000</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="13">
+      <c r="B12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="12">
         <v>500</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="13">
+      <c r="E12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="12">
         <v>50000000</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="12">
         <v>5000000</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="12">
         <v>45000000</v>
       </c>
     </row>
@@ -1337,22 +1330,22 @@
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J7" s="6" t="s">
@@ -1365,269 +1358,269 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>111</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>1</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <v>4</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="11">
         <v>100000</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="11">
         <v>11100000</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="11">
         <v>1110000</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="11">
         <v>9990000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>111</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>1</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="11">
         <v>4</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="11">
         <v>100000</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="11">
         <v>11100000</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="11">
         <v>1110000</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="11">
         <v>9990000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>111</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>1</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <v>4</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="11">
         <v>100000</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="11">
         <v>11100000</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="11">
         <v>1110000</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="11">
         <v>9990000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>111</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>1</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <v>4</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="11">
         <v>100000</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="11">
         <v>11100000</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="11">
         <v>1110000</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="11">
         <v>9990000</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>111</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>1</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="11">
         <v>4</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="11">
         <v>100000</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="11">
         <v>11100000</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="11">
         <v>1110000</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="11">
         <v>9990000</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>111</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>1</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="11">
         <v>4</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="11">
         <v>100000</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="11">
         <v>11100000</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="11">
         <v>1110000</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="11">
         <v>9990000</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="13">
+      <c r="B14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="12">
         <v>666</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="13">
+      <c r="E14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="12">
         <v>66600000</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="12">
         <v>6660000</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="12">
         <v>59940000</v>
       </c>
     </row>

--- a/src/public/exports/PhuLucGiangVienMoi.xlsx
+++ b/src/public/exports/PhuLucGiangVienMoi.xlsx
@@ -4,16 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="Nguyễn Hoàng Minh" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Trịnh Quang Thanh" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="Đoàn Minh Phương" state="visible" r:id="rId6"/>
+    <sheet sheetId="1" name="Bùi Thị Như" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Trịnh Anh Tuấn" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="Đặng Thị Kim Anh" state="visible" r:id="rId6"/>
+    <sheet sheetId="4" name="Đỗ Thái Dương" state="visible" r:id="rId7"/>
+    <sheet sheetId="5" name="Đoàn Minh Phương" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="53">
   <si>
     <t>Ban Cơ yếu Chính phủ</t>
   </si>
@@ -72,62 +74,113 @@
     <t>Thực Nhận</t>
   </si>
   <si>
-    <t>Nguyễn Hoàng Minh</t>
+    <t>Bùi Thị Như</t>
+  </si>
+  <si>
+    <t>A19C708</t>
+  </si>
+  <si>
+    <t>Hệ quản trị cơ sở dữ liệu</t>
+  </si>
+  <si>
+    <t>7/29/2024 - 12/28/2024</t>
+  </si>
+  <si>
+    <t>A19C7D602</t>
+  </si>
+  <si>
+    <t>Lập trình hướng đối tượng</t>
+  </si>
+  <si>
+    <t>A19C7D605</t>
+  </si>
+  <si>
+    <t>Cấu trúc dữ liệu và giải thuật</t>
+  </si>
+  <si>
+    <t>Tổng cộng</t>
+  </si>
+  <si>
+    <t>Trịnh Anh Tuấn</t>
+  </si>
+  <si>
+    <t>A19C701</t>
+  </si>
+  <si>
+    <t>A19C702</t>
+  </si>
+  <si>
+    <t>A19C703</t>
+  </si>
+  <si>
+    <t>Đặng Thị Kim Anh</t>
+  </si>
+  <si>
+    <t>A19C7D606</t>
+  </si>
+  <si>
+    <t>A19C7D608</t>
+  </si>
+  <si>
+    <t>Đỗ Thái Dương</t>
+  </si>
+  <si>
+    <t>C601</t>
+  </si>
+  <si>
+    <t>Công nghệ phần mềm nhúng</t>
+  </si>
+  <si>
+    <t>Đoàn Minh Phương</t>
+  </si>
+  <si>
+    <t>A19C707</t>
+  </si>
+  <si>
+    <t>11/28/1899 - 11/28/1899</t>
+  </si>
+  <si>
+    <t>Linux và phần mềm nguồn mở</t>
+  </si>
+  <si>
+    <t>A19C7D603</t>
+  </si>
+  <si>
+    <t>A20C8D701</t>
+  </si>
+  <si>
+    <t>Công nghệ mạng máy tính</t>
+  </si>
+  <si>
+    <t>A20C8D709</t>
   </si>
   <si>
     <t>Bổ sung kiến thức CH</t>
   </si>
   <si>
-    <t>Cơ sở an toàn thông tin</t>
-  </si>
-  <si>
-    <t>2/26/2025 - 5/29/2025</t>
-  </si>
-  <si>
-    <t>Tổng cộng</t>
-  </si>
-  <si>
-    <t>Trịnh Quang Thanh</t>
-  </si>
-  <si>
-    <t>H32 VL01</t>
-  </si>
-  <si>
-    <t>Hệ thống viễn thông</t>
-  </si>
-  <si>
-    <t>8/12/2025 - 12/28/2025</t>
-  </si>
-  <si>
-    <t>H32L-H33VL</t>
-  </si>
-  <si>
-    <t>Điện tử tương tự</t>
-  </si>
-  <si>
-    <t>Đoàn Minh Phương</t>
+    <t>An toàn mạng máy tính</t>
+  </si>
+  <si>
+    <t>Phát triển phần mềm ứng dụng</t>
+  </si>
+  <si>
+    <t>C703</t>
+  </si>
+  <si>
+    <t>Công nghệ phần mềm</t>
   </si>
   <si>
     <t>CTL101</t>
   </si>
   <si>
-    <t>Công nghệ phần mềm</t>
-  </si>
-  <si>
-    <t>9/28/2024 - 10/29/2024</t>
-  </si>
-  <si>
     <t xml:space="preserve">Đồ án môn học 1. Thực tập về Phát  triển phần mềm </t>
-  </si>
-  <si>
-    <t>Hệ thống nhúng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -164,10 +217,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Times New Roman"/>
     </font>
     <font>
@@ -214,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -241,11 +290,8 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -588,7 +634,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L12"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
@@ -707,22 +753,22 @@
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J7" s="6" t="s">
@@ -735,118 +781,194 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="12">
-        <v>101</v>
-      </c>
-      <c r="E8" s="12" t="s">
+      <c r="D8" s="11">
+        <v>220</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="12">
-        <v>1</v>
-      </c>
-      <c r="G8" s="12" t="s">
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="12">
-        <v>4</v>
-      </c>
-      <c r="I8" s="12">
-        <v>100000</v>
-      </c>
-      <c r="J8" s="12">
-        <v>10100000</v>
-      </c>
-      <c r="K8" s="12">
-        <v>1010000</v>
-      </c>
-      <c r="L8" s="12">
-        <v>9090000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="H8" s="11">
+        <v>4</v>
+      </c>
+      <c r="I8" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J8" s="11">
+        <v>22000000</v>
+      </c>
+      <c r="K8" s="11">
+        <v>2200000</v>
+      </c>
+      <c r="L8" s="11">
+        <v>19800000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="12">
-        <v>101</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="12">
-        <v>1</v>
-      </c>
-      <c r="G9" s="12" t="s">
+      <c r="B9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="11">
+        <v>220</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="12">
-        <v>4</v>
-      </c>
-      <c r="I9" s="12">
-        <v>100000</v>
-      </c>
-      <c r="J9" s="12">
-        <v>10100000</v>
-      </c>
-      <c r="K9" s="12">
-        <v>1010000</v>
-      </c>
-      <c r="L9" s="12">
-        <v>9090000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="13">
-        <v>202</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="13">
-        <v>20200000</v>
-      </c>
-      <c r="K10" s="13">
-        <v>2020000</v>
-      </c>
-      <c r="L10" s="13">
-        <v>18180000</v>
+      <c r="H9" s="11">
+        <v>4</v>
+      </c>
+      <c r="I9" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J9" s="11">
+        <v>22000000</v>
+      </c>
+      <c r="K9" s="11">
+        <v>2200000</v>
+      </c>
+      <c r="L9" s="11">
+        <v>19800000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="11">
+        <v>220</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="11">
+        <v>4</v>
+      </c>
+      <c r="I10" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J10" s="11">
+        <v>22000000</v>
+      </c>
+      <c r="K10" s="11">
+        <v>2200000</v>
+      </c>
+      <c r="L10" s="11">
+        <v>19800000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="11">
+        <v>220</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="11">
+        <v>4</v>
+      </c>
+      <c r="I11" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J11" s="11">
+        <v>22000000</v>
+      </c>
+      <c r="K11" s="11">
+        <v>2200000</v>
+      </c>
+      <c r="L11" s="11">
+        <v>19800000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="12">
+        <v>880</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="12">
+        <v>88000000</v>
+      </c>
+      <c r="K12" s="12">
+        <v>8800000</v>
+      </c>
+      <c r="L12" s="12">
+        <v>79200000</v>
       </c>
     </row>
   </sheetData>
@@ -865,7 +987,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L11"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
@@ -984,22 +1106,22 @@
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J7" s="6" t="s">
@@ -1012,194 +1134,156 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="12">
-        <v>125</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="12">
-        <v>1</v>
-      </c>
-      <c r="G8" s="12" t="s">
+    <row r="8" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="11">
+        <v>165</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="11">
+        <v>4</v>
+      </c>
+      <c r="I8" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J8" s="11">
+        <v>16500000</v>
+      </c>
+      <c r="K8" s="11">
+        <v>1650000</v>
+      </c>
+      <c r="L8" s="11">
+        <v>14850000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="11">
+        <v>165</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="11">
+        <v>4</v>
+      </c>
+      <c r="I9" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J9" s="11">
+        <v>16500000</v>
+      </c>
+      <c r="K9" s="11">
+        <v>1650000</v>
+      </c>
+      <c r="L9" s="11">
+        <v>14850000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="11">
+        <v>165</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="11">
+        <v>4</v>
+      </c>
+      <c r="I10" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J10" s="11">
+        <v>16500000</v>
+      </c>
+      <c r="K10" s="11">
+        <v>1650000</v>
+      </c>
+      <c r="L10" s="11">
+        <v>14850000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="12">
-        <v>4</v>
-      </c>
-      <c r="I8" s="12">
-        <v>100000</v>
-      </c>
-      <c r="J8" s="12">
-        <v>12500000</v>
-      </c>
-      <c r="K8" s="12">
-        <v>1250000</v>
-      </c>
-      <c r="L8" s="12">
-        <v>11250000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="12">
-        <v>125</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="12">
-        <v>1</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="12">
-        <v>4</v>
-      </c>
-      <c r="I9" s="12">
-        <v>100000</v>
-      </c>
-      <c r="J9" s="12">
-        <v>12500000</v>
-      </c>
-      <c r="K9" s="12">
-        <v>1250000</v>
-      </c>
-      <c r="L9" s="12">
-        <v>11250000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="12">
-        <v>125</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="12">
-        <v>1</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="12">
-        <v>4</v>
-      </c>
-      <c r="I10" s="12">
-        <v>100000</v>
-      </c>
-      <c r="J10" s="12">
-        <v>12500000</v>
-      </c>
-      <c r="K10" s="12">
-        <v>1250000</v>
-      </c>
-      <c r="L10" s="12">
-        <v>11250000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>24</v>
-      </c>
       <c r="B11" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D11" s="12">
-        <v>125</v>
+        <v>495</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="12">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="12">
-        <v>4</v>
-      </c>
-      <c r="I11" s="12">
-        <v>100000</v>
+        <v>5</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="J11" s="12">
-        <v>12500000</v>
+        <v>49500000</v>
       </c>
       <c r="K11" s="12">
-        <v>1250000</v>
+        <v>4950000</v>
       </c>
       <c r="L11" s="12">
-        <v>11250000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="13">
-        <v>500</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="13">
-        <v>50000000</v>
-      </c>
-      <c r="K12" s="13">
-        <v>5000000</v>
-      </c>
-      <c r="L12" s="13">
-        <v>45000000</v>
+        <v>44550000</v>
       </c>
     </row>
   </sheetData>
@@ -1218,7 +1302,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L10"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
@@ -1337,22 +1421,22 @@
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J7" s="6" t="s">
@@ -1365,270 +1449,1812 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="12">
+    <row r="8" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="11">
+        <v>100</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="11">
+        <v>4</v>
+      </c>
+      <c r="I8" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J8" s="11">
+        <v>10000000</v>
+      </c>
+      <c r="K8" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="L8" s="11">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="11">
+        <v>100</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="11">
+        <v>4</v>
+      </c>
+      <c r="I9" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J9" s="11">
+        <v>10000000</v>
+      </c>
+      <c r="K9" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="L9" s="11">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="12">
+        <v>200</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="12">
+        <v>20000000</v>
+      </c>
+      <c r="K10" s="12">
+        <v>2000000</v>
+      </c>
+      <c r="L10" s="12">
+        <v>18000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="J6:L6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L9"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="6" max="6" width="6" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="13" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="11">
+        <v>43</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="11">
+        <v>4</v>
+      </c>
+      <c r="I8" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J8" s="11">
+        <v>4300000</v>
+      </c>
+      <c r="K8" s="11">
+        <v>430000</v>
+      </c>
+      <c r="L8" s="11">
+        <v>3870000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="12">
+        <v>43</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="12">
+        <v>4300000</v>
+      </c>
+      <c r="K9" s="12">
+        <v>430000</v>
+      </c>
+      <c r="L9" s="12">
+        <v>3870000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="J6:L6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L41"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="6" max="6" width="6" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="13" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="11">
         <v>111</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="12">
-        <v>1</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="12">
-        <v>4</v>
-      </c>
-      <c r="I8" s="12">
-        <v>100000</v>
-      </c>
-      <c r="J8" s="12">
+      <c r="E8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="11">
+        <v>4</v>
+      </c>
+      <c r="I8" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J8" s="11">
         <v>11100000</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="11">
         <v>1110000</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="11">
         <v>9990000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="12">
+    <row r="9" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="11">
+        <v>101</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="11">
+        <v>4</v>
+      </c>
+      <c r="I9" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J9" s="11">
+        <v>10100000</v>
+      </c>
+      <c r="K9" s="11">
+        <v>1010000</v>
+      </c>
+      <c r="L9" s="11">
+        <v>9090000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="11">
+        <v>458</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="11">
+        <v>4</v>
+      </c>
+      <c r="I10" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J10" s="11">
+        <v>45800000</v>
+      </c>
+      <c r="K10" s="11">
+        <v>4580000</v>
+      </c>
+      <c r="L10" s="11">
+        <v>41220000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="11">
+        <v>101</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="11">
+        <v>4</v>
+      </c>
+      <c r="I11" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J11" s="11">
+        <v>10100000</v>
+      </c>
+      <c r="K11" s="11">
+        <v>1010000</v>
+      </c>
+      <c r="L11" s="11">
+        <v>9090000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="11">
+        <v>458</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="11">
+        <v>1</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="11">
+        <v>4</v>
+      </c>
+      <c r="I12" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J12" s="11">
+        <v>45800000</v>
+      </c>
+      <c r="K12" s="11">
+        <v>4580000</v>
+      </c>
+      <c r="L12" s="11">
+        <v>41220000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="11">
         <v>111</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="12">
-        <v>1</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="12">
-        <v>4</v>
-      </c>
-      <c r="I9" s="12">
-        <v>100000</v>
-      </c>
-      <c r="J9" s="12">
+      <c r="E13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="11">
+        <v>4</v>
+      </c>
+      <c r="I13" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J13" s="11">
         <v>11100000</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K13" s="11">
         <v>1110000</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L13" s="11">
         <v>9990000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="12">
+    <row r="14" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="11">
+        <v>101</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="11">
+        <v>1</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="11">
+        <v>4</v>
+      </c>
+      <c r="I14" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J14" s="11">
+        <v>10100000</v>
+      </c>
+      <c r="K14" s="11">
+        <v>1010000</v>
+      </c>
+      <c r="L14" s="11">
+        <v>9090000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="11">
+        <v>458</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="11">
+        <v>4</v>
+      </c>
+      <c r="I15" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J15" s="11">
+        <v>45800000</v>
+      </c>
+      <c r="K15" s="11">
+        <v>4580000</v>
+      </c>
+      <c r="L15" s="11">
+        <v>41220000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="11">
         <v>111</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="12">
-        <v>1</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="12">
-        <v>4</v>
-      </c>
-      <c r="I10" s="12">
-        <v>100000</v>
-      </c>
-      <c r="J10" s="12">
+      <c r="E16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="11">
+        <v>1</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="11">
+        <v>4</v>
+      </c>
+      <c r="I16" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J16" s="11">
         <v>11100000</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K16" s="11">
         <v>1110000</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L16" s="11">
         <v>9990000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="12">
+    <row r="17" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="11">
+        <v>458</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="11">
+        <v>1</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="11">
+        <v>4</v>
+      </c>
+      <c r="I17" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J17" s="11">
+        <v>45800000</v>
+      </c>
+      <c r="K17" s="11">
+        <v>4580000</v>
+      </c>
+      <c r="L17" s="11">
+        <v>41220000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="11">
         <v>111</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="12">
-        <v>1</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="12">
-        <v>4</v>
-      </c>
-      <c r="I11" s="12">
-        <v>100000</v>
-      </c>
-      <c r="J11" s="12">
+      <c r="E18" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="11">
+        <v>1</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="11">
+        <v>4</v>
+      </c>
+      <c r="I18" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J18" s="11">
         <v>11100000</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K18" s="11">
         <v>1110000</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L18" s="11">
         <v>9990000</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="12">
+    <row r="19" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="11">
+        <v>101</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="11">
+        <v>1</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="11">
+        <v>4</v>
+      </c>
+      <c r="I19" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J19" s="11">
+        <v>10100000</v>
+      </c>
+      <c r="K19" s="11">
+        <v>1010000</v>
+      </c>
+      <c r="L19" s="11">
+        <v>9090000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="11">
+        <v>458</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="11">
+        <v>1</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="11">
+        <v>4</v>
+      </c>
+      <c r="I20" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J20" s="11">
+        <v>45800000</v>
+      </c>
+      <c r="K20" s="11">
+        <v>4580000</v>
+      </c>
+      <c r="L20" s="11">
+        <v>41220000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="11">
         <v>111</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="12">
-        <v>1</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="12">
-        <v>4</v>
-      </c>
-      <c r="I12" s="12">
-        <v>100000</v>
-      </c>
-      <c r="J12" s="12">
+      <c r="E21" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="11">
+        <v>1</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="11">
+        <v>4</v>
+      </c>
+      <c r="I21" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J21" s="11">
         <v>11100000</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K21" s="11">
         <v>1110000</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L21" s="11">
         <v>9990000</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="12">
+    <row r="22" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="11">
+        <v>101</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="11">
+        <v>1</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="11">
+        <v>4</v>
+      </c>
+      <c r="I22" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J22" s="11">
+        <v>10100000</v>
+      </c>
+      <c r="K22" s="11">
+        <v>1010000</v>
+      </c>
+      <c r="L22" s="11">
+        <v>9090000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="11">
+        <v>458</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="11">
+        <v>1</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="11">
+        <v>4</v>
+      </c>
+      <c r="I23" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J23" s="11">
+        <v>45800000</v>
+      </c>
+      <c r="K23" s="11">
+        <v>4580000</v>
+      </c>
+      <c r="L23" s="11">
+        <v>41220000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="11">
         <v>111</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="12">
-        <v>1</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="12">
-        <v>4</v>
-      </c>
-      <c r="I13" s="12">
-        <v>100000</v>
-      </c>
-      <c r="J13" s="12">
+      <c r="E24" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="11">
+        <v>1</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="11">
+        <v>4</v>
+      </c>
+      <c r="I24" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J24" s="11">
         <v>11100000</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K24" s="11">
         <v>1110000</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L24" s="11">
         <v>9990000</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="13">
-        <v>666</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="13">
-        <v>66600000</v>
-      </c>
-      <c r="K14" s="13">
-        <v>6660000</v>
-      </c>
-      <c r="L14" s="13">
-        <v>59940000</v>
+    <row r="25" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="11">
+        <v>101</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="11">
+        <v>1</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="11">
+        <v>4</v>
+      </c>
+      <c r="I25" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J25" s="11">
+        <v>10100000</v>
+      </c>
+      <c r="K25" s="11">
+        <v>1010000</v>
+      </c>
+      <c r="L25" s="11">
+        <v>9090000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="11">
+        <v>111</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="11">
+        <v>1</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="11">
+        <v>4</v>
+      </c>
+      <c r="I26" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J26" s="11">
+        <v>11100000</v>
+      </c>
+      <c r="K26" s="11">
+        <v>1110000</v>
+      </c>
+      <c r="L26" s="11">
+        <v>9990000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="11">
+        <v>101</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="11">
+        <v>1</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="11">
+        <v>4</v>
+      </c>
+      <c r="I27" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J27" s="11">
+        <v>10100000</v>
+      </c>
+      <c r="K27" s="11">
+        <v>1010000</v>
+      </c>
+      <c r="L27" s="11">
+        <v>9090000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="11">
+        <v>458</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="11">
+        <v>1</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="11">
+        <v>4</v>
+      </c>
+      <c r="I28" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J28" s="11">
+        <v>45800000</v>
+      </c>
+      <c r="K28" s="11">
+        <v>4580000</v>
+      </c>
+      <c r="L28" s="11">
+        <v>41220000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="11">
+        <v>111</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="11">
+        <v>1</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="11">
+        <v>4</v>
+      </c>
+      <c r="I29" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J29" s="11">
+        <v>11100000</v>
+      </c>
+      <c r="K29" s="11">
+        <v>1110000</v>
+      </c>
+      <c r="L29" s="11">
+        <v>9990000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="11">
+        <v>101</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="11">
+        <v>1</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="11">
+        <v>4</v>
+      </c>
+      <c r="I30" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J30" s="11">
+        <v>10100000</v>
+      </c>
+      <c r="K30" s="11">
+        <v>1010000</v>
+      </c>
+      <c r="L30" s="11">
+        <v>9090000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="11">
+        <v>458</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="11">
+        <v>1</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="11">
+        <v>4</v>
+      </c>
+      <c r="I31" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J31" s="11">
+        <v>45800000</v>
+      </c>
+      <c r="K31" s="11">
+        <v>4580000</v>
+      </c>
+      <c r="L31" s="11">
+        <v>41220000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="11">
+        <v>101</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="11">
+        <v>1</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" s="11">
+        <v>4</v>
+      </c>
+      <c r="I32" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J32" s="11">
+        <v>10100000</v>
+      </c>
+      <c r="K32" s="11">
+        <v>1010000</v>
+      </c>
+      <c r="L32" s="11">
+        <v>9090000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="11">
+        <v>458</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="11">
+        <v>1</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="11">
+        <v>4</v>
+      </c>
+      <c r="I33" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J33" s="11">
+        <v>45800000</v>
+      </c>
+      <c r="K33" s="11">
+        <v>4580000</v>
+      </c>
+      <c r="L33" s="11">
+        <v>41220000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="11">
+        <v>111</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="11">
+        <v>1</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H34" s="11">
+        <v>4</v>
+      </c>
+      <c r="I34" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J34" s="11">
+        <v>11100000</v>
+      </c>
+      <c r="K34" s="11">
+        <v>1110000</v>
+      </c>
+      <c r="L34" s="11">
+        <v>9990000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="11">
+        <v>458</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="11">
+        <v>1</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="11">
+        <v>4</v>
+      </c>
+      <c r="I35" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J35" s="11">
+        <v>45800000</v>
+      </c>
+      <c r="K35" s="11">
+        <v>4580000</v>
+      </c>
+      <c r="L35" s="11">
+        <v>41220000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="11">
+        <v>458</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="11">
+        <v>1</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="11">
+        <v>4</v>
+      </c>
+      <c r="I36" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J36" s="11">
+        <v>45800000</v>
+      </c>
+      <c r="K36" s="11">
+        <v>4580000</v>
+      </c>
+      <c r="L36" s="11">
+        <v>41220000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="11">
+        <v>111</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="11">
+        <v>1</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H37" s="11">
+        <v>4</v>
+      </c>
+      <c r="I37" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J37" s="11">
+        <v>11100000</v>
+      </c>
+      <c r="K37" s="11">
+        <v>1110000</v>
+      </c>
+      <c r="L37" s="11">
+        <v>9990000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="11">
+        <v>111</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="11">
+        <v>1</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" s="11">
+        <v>4</v>
+      </c>
+      <c r="I38" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J38" s="11">
+        <v>11100000</v>
+      </c>
+      <c r="K38" s="11">
+        <v>1110000</v>
+      </c>
+      <c r="L38" s="11">
+        <v>9990000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="11">
+        <v>101</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" s="11">
+        <v>1</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H39" s="11">
+        <v>4</v>
+      </c>
+      <c r="I39" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J39" s="11">
+        <v>10100000</v>
+      </c>
+      <c r="K39" s="11">
+        <v>1010000</v>
+      </c>
+      <c r="L39" s="11">
+        <v>9090000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="11">
+        <v>101</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F40" s="11">
+        <v>1</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40" s="11">
+        <v>4</v>
+      </c>
+      <c r="I40" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J40" s="11">
+        <v>10100000</v>
+      </c>
+      <c r="K40" s="11">
+        <v>1010000</v>
+      </c>
+      <c r="L40" s="11">
+        <v>9090000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="12">
+        <v>7370</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="12">
+        <v>737000000</v>
+      </c>
+      <c r="K41" s="12">
+        <v>73700000</v>
+      </c>
+      <c r="L41" s="12">
+        <v>663300000</v>
       </c>
     </row>
   </sheetData>

--- a/src/public/exports/PhuLucGiangVienMoi.xlsx
+++ b/src/public/exports/PhuLucGiangVienMoi.xlsx
@@ -57,7 +57,7 @@
     <t>Thời Gian Thực Hiện</t>
   </si>
   <si>
-    <t>Hệ Số Lương</t>
+    <t>HSL</t>
   </si>
   <si>
     <t>Mức thanh toán</t>
@@ -127,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -159,19 +159,11 @@
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Times New Roman"/>
     </font>
     <font>
@@ -210,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -231,14 +223,8 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -585,10 +571,10 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="13" width="13" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="10" max="13" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -608,7 +594,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -622,9 +608,8 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -638,9 +623,8 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -654,7 +638,6 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -697,25 +680,25 @@
       <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="J7" s="6" t="s">
@@ -728,117 +711,117 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <v>101</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="9">
         <v>1</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="9">
         <v>4</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="9">
         <v>100000</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="9">
         <v>10100000</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="9">
         <v>1010000</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="9">
         <v>9090000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="9">
         <v>101</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="9">
         <v>4</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="9">
         <v>100000</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="9">
         <v>10100000</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="9">
         <v>1010000</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="9">
         <v>9090000</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="12">
+      <c r="B10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="10">
         <v>202</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="12">
+      <c r="E10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="10">
         <v>20200000</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="10">
         <v>2020000</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="10">
         <v>18180000</v>
       </c>
     </row>
@@ -846,9 +829,9 @@
   <mergeCells count="6">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="J6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -862,10 +845,10 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="13" width="13" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="10" max="13" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -885,7 +868,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -899,9 +882,8 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -915,9 +897,8 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -931,7 +912,6 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -974,25 +954,25 @@
       <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="J7" s="6" t="s">
@@ -1005,193 +985,193 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <v>125</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="9">
         <v>1</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="9">
         <v>4</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="9">
         <v>100000</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="9">
         <v>12500000</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="9">
         <v>1250000</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="9">
         <v>11250000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="9">
         <v>125</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="9">
         <v>4</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="9">
         <v>100000</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="9">
         <v>12500000</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="9">
         <v>1250000</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="9">
         <v>11250000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="9">
         <v>125</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="9">
         <v>1</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="9">
         <v>4</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="9">
         <v>100000</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="9">
         <v>12500000</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="9">
         <v>1250000</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="9">
         <v>11250000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="9">
         <v>125</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="9">
         <v>1</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="9">
         <v>4</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="9">
         <v>100000</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="9">
         <v>12500000</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="9">
         <v>1250000</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="9">
         <v>11250000</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="12">
+      <c r="B12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="10">
         <v>500</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="12">
+      <c r="E12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="10">
         <v>50000000</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="10">
         <v>5000000</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="10">
         <v>45000000</v>
       </c>
     </row>
@@ -1199,9 +1179,9 @@
   <mergeCells count="6">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="J6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1215,10 +1195,10 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="13" width="13" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="10" max="13" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1238,7 +1218,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1252,9 +1232,8 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1268,9 +1247,8 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1284,7 +1262,6 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1327,25 +1304,25 @@
       <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="J7" s="6" t="s">
@@ -1358,269 +1335,269 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <v>111</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="9">
         <v>1</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="9">
         <v>4</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="9">
         <v>100000</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="9">
         <v>11100000</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="9">
         <v>1110000</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="9">
         <v>9990000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="9">
         <v>111</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="9">
         <v>4</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="9">
         <v>100000</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="9">
         <v>11100000</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="9">
         <v>1110000</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="9">
         <v>9990000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="9">
         <v>111</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="9">
         <v>1</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="9">
         <v>4</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="9">
         <v>100000</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="9">
         <v>11100000</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="9">
         <v>1110000</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="9">
         <v>9990000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="9">
         <v>111</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="9">
         <v>1</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="9">
         <v>4</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="9">
         <v>100000</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="9">
         <v>11100000</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="9">
         <v>1110000</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="9">
         <v>9990000</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="9">
         <v>111</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="9">
         <v>1</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="9">
         <v>4</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="9">
         <v>100000</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="9">
         <v>11100000</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="9">
         <v>1110000</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="9">
         <v>9990000</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="9">
         <v>111</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="9">
         <v>1</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="9">
         <v>4</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="9">
         <v>100000</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="9">
         <v>11100000</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="9">
         <v>1110000</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="9">
         <v>9990000</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="12">
+      <c r="B14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="10">
         <v>666</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="12">
+      <c r="E14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="10">
         <v>66600000</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="10">
         <v>6660000</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="10">
         <v>59940000</v>
       </c>
     </row>
@@ -1628,9 +1605,9 @@
   <mergeCells count="6">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="J6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/public/exports/PhuLucGiangVienMoi.xlsx
+++ b/src/public/exports/PhuLucGiangVienMoi.xlsx
@@ -573,7 +573,7 @@
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
     <col min="10" max="13" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -847,7 +847,7 @@
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
     <col min="10" max="13" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1197,7 +1197,7 @@
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
     <col min="10" max="13" width="10" customWidth="1"/>
   </cols>
   <sheetData>

--- a/src/public/exports/PhuLucGiangVienMoi.xlsx
+++ b/src/public/exports/PhuLucGiangVienMoi.xlsx
@@ -4,8 +4,8 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="Nguyễn Hoàng Minh" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Trịnh Quang Thanh" state="visible" r:id="rId5"/>
+    <sheet sheetId="1" name="Dương Văn Mạnh" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Đặng Thị Kim Anh" state="visible" r:id="rId5"/>
     <sheet sheetId="3" name="Đoàn Minh Phương" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="32">
   <si>
     <t>Ban Cơ yếu Chính phủ</t>
   </si>
@@ -72,62 +72,50 @@
     <t>Thực Nhận</t>
   </si>
   <si>
-    <t>Nguyễn Hoàng Minh</t>
-  </si>
-  <si>
-    <t>Bổ sung kiến thức CH</t>
-  </si>
-  <si>
-    <t>Cơ sở an toàn thông tin</t>
-  </si>
-  <si>
-    <t>2/26/2025 - 5/29/2025</t>
+    <t>Dương Văn Mạnh</t>
+  </si>
+  <si>
+    <t>A20C8D709</t>
+  </si>
+  <si>
+    <t>Công nghệ mạng máy tính</t>
+  </si>
+  <si>
+    <t>9/29/2024 - 10/30/2024</t>
   </si>
   <si>
     <t>Tổng cộng</t>
   </si>
   <si>
-    <t>Trịnh Quang Thanh</t>
-  </si>
-  <si>
-    <t>H32 VL01</t>
-  </si>
-  <si>
-    <t>Hệ thống viễn thông</t>
-  </si>
-  <si>
-    <t>8/12/2025 - 12/28/2025</t>
-  </si>
-  <si>
-    <t>H32L-H33VL</t>
-  </si>
-  <si>
-    <t>Điện tử tương tự</t>
+    <t>Đặng Thị Kim Anh</t>
+  </si>
+  <si>
+    <t>A19C7D606</t>
+  </si>
+  <si>
+    <t>Cấu trúc dữ liệu và giải thuật</t>
+  </si>
+  <si>
+    <t>A19C7D608</t>
   </si>
   <si>
     <t>Đoàn Minh Phương</t>
   </si>
   <si>
-    <t>CTL101</t>
+    <t>A20C8D701</t>
+  </si>
+  <si>
+    <t>C703</t>
   </si>
   <si>
     <t>Công nghệ phần mềm</t>
-  </si>
-  <si>
-    <t>9/28/2024 - 10/29/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đồ án môn học 1. Thực tập về Phát  triển phần mềm </t>
-  </si>
-  <si>
-    <t>Hệ thống nhúng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -159,14 +147,19 @@
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
       <name val="Times New Roman"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Times New Roman"/>
     </font>
   </fonts>
@@ -202,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -217,16 +210,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,14 +565,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L9"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="13" width="10" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="9" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -677,7 +680,7 @@
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -689,7 +692,7 @@
       <c r="E7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -711,8 +714,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -722,107 +725,69 @@
         <v>20</v>
       </c>
       <c r="D8" s="9">
-        <v>101</v>
-      </c>
-      <c r="E8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="10">
         <v>1</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="9">
         <v>4</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <v>100000</v>
       </c>
-      <c r="J8" s="9">
-        <v>10100000</v>
-      </c>
-      <c r="K8" s="9">
-        <v>1010000</v>
-      </c>
-      <c r="L8" s="9">
-        <v>9090000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="9">
-        <v>101</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="9">
-        <v>4</v>
-      </c>
-      <c r="I9" s="9">
-        <v>100000</v>
-      </c>
-      <c r="J9" s="9">
-        <v>10100000</v>
-      </c>
-      <c r="K9" s="9">
-        <v>1010000</v>
-      </c>
-      <c r="L9" s="9">
-        <v>9090000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="J8" s="8">
+        <v>6500000</v>
+      </c>
+      <c r="K8" s="8">
+        <v>650000</v>
+      </c>
+      <c r="L8" s="8">
+        <v>5850000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="10">
-        <v>202</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="10">
-        <v>20200000</v>
-      </c>
-      <c r="K10" s="10">
-        <v>2020000</v>
-      </c>
-      <c r="L10" s="10">
-        <v>18180000</v>
+      <c r="B9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="11">
+        <v>65</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="11">
+        <v>6500000</v>
+      </c>
+      <c r="K9" s="11">
+        <v>650000</v>
+      </c>
+      <c r="L9" s="11">
+        <v>5850000</v>
       </c>
     </row>
   </sheetData>
@@ -834,6 +799,7 @@
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="J6:L6"/>
   </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
@@ -841,14 +807,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L10"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="13" width="10" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="9" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -951,7 +922,7 @@
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -963,7 +934,7 @@
       <c r="E7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -985,8 +956,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -996,183 +967,107 @@
         <v>25</v>
       </c>
       <c r="D8" s="9">
-        <v>125</v>
-      </c>
-      <c r="E8" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="10">
         <v>1</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>27</v>
+      <c r="G8" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="H8" s="9">
         <v>4</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <v>100000</v>
       </c>
-      <c r="J8" s="9">
-        <v>12500000</v>
-      </c>
-      <c r="K8" s="9">
-        <v>1250000</v>
-      </c>
-      <c r="L8" s="9">
-        <v>11250000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="J8" s="8">
+        <v>10000000</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="L8" s="8">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" s="9">
-        <v>125</v>
-      </c>
-      <c r="E9" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="10">
         <v>1</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>27</v>
+      <c r="G9" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="H9" s="9">
         <v>4</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>100000</v>
       </c>
-      <c r="J9" s="9">
-        <v>12500000</v>
-      </c>
-      <c r="K9" s="9">
-        <v>1250000</v>
-      </c>
-      <c r="L9" s="9">
-        <v>11250000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="9">
-        <v>125</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="9">
-        <v>1</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="9">
-        <v>4</v>
-      </c>
-      <c r="I10" s="9">
-        <v>100000</v>
-      </c>
-      <c r="J10" s="9">
-        <v>12500000</v>
-      </c>
-      <c r="K10" s="9">
-        <v>1250000</v>
-      </c>
-      <c r="L10" s="9">
-        <v>11250000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="9">
-        <v>125</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="9">
-        <v>1</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="9">
-        <v>4</v>
-      </c>
-      <c r="I11" s="9">
-        <v>100000</v>
-      </c>
-      <c r="J11" s="9">
-        <v>12500000</v>
-      </c>
-      <c r="K11" s="9">
-        <v>1250000</v>
-      </c>
-      <c r="L11" s="9">
-        <v>11250000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="J9" s="8">
+        <v>10000000</v>
+      </c>
+      <c r="K9" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="L9" s="8">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="10">
-        <v>500</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="10">
-        <v>50000000</v>
-      </c>
-      <c r="K12" s="10">
-        <v>5000000</v>
-      </c>
-      <c r="L12" s="10">
-        <v>45000000</v>
+      <c r="B10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="11">
+        <v>200</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="11">
+        <v>20000000</v>
+      </c>
+      <c r="K10" s="11">
+        <v>2000000</v>
+      </c>
+      <c r="L10" s="11">
+        <v>18000000</v>
       </c>
     </row>
   </sheetData>
@@ -1184,6 +1079,7 @@
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="J6:L6"/>
   </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
@@ -1191,14 +1087,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L10"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="13" width="10" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="9" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1301,7 +1202,7 @@
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1313,7 +1214,7 @@
       <c r="E7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -1335,270 +1236,118 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>30</v>
+    <row r="8" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="9">
-        <v>111</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="9">
+        <v>108</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="10">
         <v>1</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>33</v>
+      <c r="G8" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="H8" s="9">
         <v>4</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <v>100000</v>
       </c>
-      <c r="J8" s="9">
-        <v>11100000</v>
-      </c>
-      <c r="K8" s="9">
-        <v>1110000</v>
-      </c>
-      <c r="L8" s="9">
-        <v>9990000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="J8" s="8">
+        <v>10800000</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1080000</v>
+      </c>
+      <c r="L8" s="8">
+        <v>9720000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="9">
+        <v>108</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="9">
-        <v>111</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="9">
+      <c r="F9" s="10">
         <v>1</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>33</v>
+      <c r="G9" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="H9" s="9">
         <v>4</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>100000</v>
       </c>
-      <c r="J9" s="9">
-        <v>11100000</v>
-      </c>
-      <c r="K9" s="9">
-        <v>1110000</v>
-      </c>
-      <c r="L9" s="9">
-        <v>9990000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="9">
-        <v>111</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="9">
-        <v>1</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="9">
-        <v>4</v>
-      </c>
-      <c r="I10" s="9">
-        <v>100000</v>
-      </c>
-      <c r="J10" s="9">
-        <v>11100000</v>
-      </c>
-      <c r="K10" s="9">
-        <v>1110000</v>
-      </c>
-      <c r="L10" s="9">
-        <v>9990000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="9">
-        <v>111</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="9">
-        <v>1</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="9">
-        <v>4</v>
-      </c>
-      <c r="I11" s="9">
-        <v>100000</v>
-      </c>
-      <c r="J11" s="9">
-        <v>11100000</v>
-      </c>
-      <c r="K11" s="9">
-        <v>1110000</v>
-      </c>
-      <c r="L11" s="9">
-        <v>9990000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="9">
-        <v>111</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="9">
-        <v>1</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="9">
-        <v>4</v>
-      </c>
-      <c r="I12" s="9">
-        <v>100000</v>
-      </c>
-      <c r="J12" s="9">
-        <v>11100000</v>
-      </c>
-      <c r="K12" s="9">
-        <v>1110000</v>
-      </c>
-      <c r="L12" s="9">
-        <v>9990000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="9">
-        <v>111</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="9">
-        <v>1</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="9">
-        <v>4</v>
-      </c>
-      <c r="I13" s="9">
-        <v>100000</v>
-      </c>
-      <c r="J13" s="9">
-        <v>11100000</v>
-      </c>
-      <c r="K13" s="9">
-        <v>1110000</v>
-      </c>
-      <c r="L13" s="9">
-        <v>9990000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="J9" s="8">
+        <v>10800000</v>
+      </c>
+      <c r="K9" s="8">
+        <v>1080000</v>
+      </c>
+      <c r="L9" s="8">
+        <v>9720000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="10">
-        <v>666</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="10">
-        <v>66600000</v>
-      </c>
-      <c r="K14" s="10">
-        <v>6660000</v>
-      </c>
-      <c r="L14" s="10">
-        <v>59940000</v>
+      <c r="B10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="11">
+        <v>216</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="11">
+        <v>21600000</v>
+      </c>
+      <c r="K10" s="11">
+        <v>2160000</v>
+      </c>
+      <c r="L10" s="11">
+        <v>19440000</v>
       </c>
     </row>
   </sheetData>
@@ -1610,6 +1359,7 @@
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="J6:L6"/>
   </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>

--- a/src/public/exports/PhuLucGiangVienMoi.xlsx
+++ b/src/public/exports/PhuLucGiangVienMoi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="32">
   <si>
     <t>Ban Cơ yếu Chính phủ</t>
   </si>
@@ -214,16 +214,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -565,9 +565,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:L9"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
@@ -756,12 +753,8 @@
       <c r="A9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="11">
         <v>65</v>
       </c>
@@ -791,15 +784,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="J6:L6"/>
+    <mergeCell ref="A9:C9"/>
   </mergeCells>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
@@ -807,9 +800,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:L10"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
@@ -1036,12 +1026,8 @@
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="11">
         <v>200</v>
       </c>
@@ -1071,15 +1057,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="J6:L6"/>
+    <mergeCell ref="A10:C10"/>
   </mergeCells>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
@@ -1087,9 +1073,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:L10"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
@@ -1316,12 +1299,8 @@
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="11">
         <v>216</v>
       </c>
@@ -1351,15 +1330,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="J6:L6"/>
+    <mergeCell ref="A10:C10"/>
   </mergeCells>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>

--- a/src/public/exports/PhuLucGiangVienMoi.xlsx
+++ b/src/public/exports/PhuLucGiangVienMoi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="40">
   <si>
     <t>Ban Cơ yếu Chính phủ</t>
   </si>
@@ -106,6 +106,18 @@
   </si>
   <si>
     <t>Đoàn Minh Phương</t>
+  </si>
+  <si>
+    <t>A18-Kỹ nghệ ATM01</t>
+  </si>
+  <si>
+    <t>An toàn mạng không dây và di động</t>
+  </si>
+  <si>
+    <t>11/1/2024 - 11/3/2024</t>
+  </si>
+  <si>
+    <t>Khai thác lỗ hổng phần mềm</t>
   </si>
   <si>
     <t>A20C8D701</t>
@@ -584,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L18"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
@@ -776,13 +788,13 @@
         <v>20</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D9" s="10">
         <v>110</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F9" s="11">
         <v>1</v>
@@ -806,38 +818,342 @@
         <v>9900000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="10">
+        <v>110</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="10">
+        <v>4</v>
+      </c>
+      <c r="I10" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J10" s="8">
+        <v>11000000</v>
+      </c>
+      <c r="K10" s="8">
+        <v>1100000</v>
+      </c>
+      <c r="L10" s="8">
+        <v>9900000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="10">
+        <v>110</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="10">
+        <v>4</v>
+      </c>
+      <c r="I11" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J11" s="8">
+        <v>11000000</v>
+      </c>
+      <c r="K11" s="8">
+        <v>1100000</v>
+      </c>
+      <c r="L11" s="8">
+        <v>9900000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="10">
+        <v>110</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="11">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="10">
+        <v>4</v>
+      </c>
+      <c r="I12" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J12" s="8">
+        <v>11000000</v>
+      </c>
+      <c r="K12" s="8">
+        <v>1100000</v>
+      </c>
+      <c r="L12" s="8">
+        <v>9900000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="10">
+        <v>110</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="10">
+        <v>4</v>
+      </c>
+      <c r="I13" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J13" s="8">
+        <v>11000000</v>
+      </c>
+      <c r="K13" s="8">
+        <v>1100000</v>
+      </c>
+      <c r="L13" s="8">
+        <v>9900000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="10">
+        <v>110</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="11">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="10">
+        <v>4</v>
+      </c>
+      <c r="I14" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J14" s="8">
+        <v>11000000</v>
+      </c>
+      <c r="K14" s="8">
+        <v>1100000</v>
+      </c>
+      <c r="L14" s="8">
+        <v>9900000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="10">
+        <v>110</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="10">
+        <v>4</v>
+      </c>
+      <c r="I15" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J15" s="8">
+        <v>11000000</v>
+      </c>
+      <c r="K15" s="8">
+        <v>1100000</v>
+      </c>
+      <c r="L15" s="8">
+        <v>9900000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="10">
+        <v>110</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="11">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="10">
+        <v>4</v>
+      </c>
+      <c r="I16" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J16" s="8">
+        <v>11000000</v>
+      </c>
+      <c r="K16" s="8">
+        <v>1100000</v>
+      </c>
+      <c r="L16" s="8">
+        <v>9900000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="10">
+        <v>110</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="11">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="10">
+        <v>4</v>
+      </c>
+      <c r="I17" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J17" s="8">
+        <v>11000000</v>
+      </c>
+      <c r="K17" s="8">
+        <v>1100000</v>
+      </c>
+      <c r="L17" s="8">
+        <v>9900000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12">
-        <v>220</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="12">
-        <v>22000000</v>
-      </c>
-      <c r="K10" s="12">
-        <v>2200000</v>
-      </c>
-      <c r="L10" s="12">
-        <v>19800000</v>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12">
+        <v>1100</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="12">
+        <v>110000000</v>
+      </c>
+      <c r="K18" s="12">
+        <v>11000000</v>
+      </c>
+      <c r="L18" s="12">
+        <v>99000000</v>
       </c>
     </row>
   </sheetData>
@@ -848,7 +1164,7 @@
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="J6:L6"/>
-    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A18:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -857,7 +1173,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L18"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
@@ -1049,7 +1365,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="10">
         <v>100</v>
@@ -1079,38 +1395,342 @@
         <v>9000000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="10">
+        <v>100</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="10">
+        <v>4</v>
+      </c>
+      <c r="I10" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J10" s="8">
+        <v>10000000</v>
+      </c>
+      <c r="K10" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="L10" s="8">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="10">
+        <v>100</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="10">
+        <v>4</v>
+      </c>
+      <c r="I11" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J11" s="8">
+        <v>10000000</v>
+      </c>
+      <c r="K11" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="L11" s="8">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="10">
+        <v>100</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="11">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="10">
+        <v>4</v>
+      </c>
+      <c r="I12" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J12" s="8">
+        <v>10000000</v>
+      </c>
+      <c r="K12" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="L12" s="8">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="10">
+        <v>100</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="10">
+        <v>4</v>
+      </c>
+      <c r="I13" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J13" s="8">
+        <v>10000000</v>
+      </c>
+      <c r="K13" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="L13" s="8">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="10">
+        <v>100</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="11">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="10">
+        <v>4</v>
+      </c>
+      <c r="I14" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J14" s="8">
+        <v>10000000</v>
+      </c>
+      <c r="K14" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="L14" s="8">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="10">
+        <v>100</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="10">
+        <v>4</v>
+      </c>
+      <c r="I15" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J15" s="8">
+        <v>10000000</v>
+      </c>
+      <c r="K15" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="L15" s="8">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="10">
+        <v>100</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="11">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="10">
+        <v>4</v>
+      </c>
+      <c r="I16" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J16" s="8">
+        <v>10000000</v>
+      </c>
+      <c r="K16" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="L16" s="8">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="10">
+        <v>100</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="11">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="10">
+        <v>4</v>
+      </c>
+      <c r="I17" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J17" s="8">
+        <v>10000000</v>
+      </c>
+      <c r="K17" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="L17" s="8">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12">
-        <v>200</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="12">
-        <v>20000000</v>
-      </c>
-      <c r="K10" s="12">
-        <v>2000000</v>
-      </c>
-      <c r="L10" s="12">
-        <v>18000000</v>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="12">
+        <v>100000000</v>
+      </c>
+      <c r="K18" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L18" s="12">
+        <v>90000000</v>
       </c>
     </row>
   </sheetData>
@@ -1121,7 +1741,7 @@
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="J6:L6"/>
-    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A18:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -1130,7 +1750,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L42"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
@@ -1287,7 +1907,7 @@
         <v>31</v>
       </c>
       <c r="D8" s="10">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>32</v>
@@ -1296,7 +1916,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H8" s="10">
         <v>4</v>
@@ -1305,13 +1925,13 @@
         <v>100000</v>
       </c>
       <c r="J8" s="8">
-        <v>17300000</v>
+        <v>14100000</v>
       </c>
       <c r="K8" s="8">
-        <v>1730000</v>
+        <v>1410000</v>
       </c>
       <c r="L8" s="8">
-        <v>15570000</v>
+        <v>12690000</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1322,7 +1942,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9" s="10">
         <v>173</v>
@@ -1334,7 +1954,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H9" s="10">
         <v>4</v>
@@ -1360,19 +1980,19 @@
         <v>20</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D10" s="10">
         <v>173</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="11">
         <v>1</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H10" s="10">
         <v>4</v>
@@ -1390,38 +2010,1216 @@
         <v>15570000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="10">
+        <v>141</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="10">
+        <v>4</v>
+      </c>
+      <c r="I11" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J11" s="8">
+        <v>14100000</v>
+      </c>
+      <c r="K11" s="8">
+        <v>1410000</v>
+      </c>
+      <c r="L11" s="8">
+        <v>12690000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="10">
+        <v>173</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="11">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="10">
+        <v>4</v>
+      </c>
+      <c r="I12" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J12" s="8">
+        <v>17300000</v>
+      </c>
+      <c r="K12" s="8">
+        <v>1730000</v>
+      </c>
+      <c r="L12" s="8">
+        <v>15570000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="10">
+        <v>173</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="10">
+        <v>4</v>
+      </c>
+      <c r="I13" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J13" s="8">
+        <v>17300000</v>
+      </c>
+      <c r="K13" s="8">
+        <v>1730000</v>
+      </c>
+      <c r="L13" s="8">
+        <v>15570000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="10">
+        <v>173</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="11">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="10">
+        <v>4</v>
+      </c>
+      <c r="I14" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J14" s="8">
+        <v>17300000</v>
+      </c>
+      <c r="K14" s="8">
+        <v>1730000</v>
+      </c>
+      <c r="L14" s="8">
+        <v>15570000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="10">
+        <v>141</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="10">
+        <v>4</v>
+      </c>
+      <c r="I15" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J15" s="8">
+        <v>14100000</v>
+      </c>
+      <c r="K15" s="8">
+        <v>1410000</v>
+      </c>
+      <c r="L15" s="8">
+        <v>12690000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="10">
+        <v>173</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="11">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="10">
+        <v>4</v>
+      </c>
+      <c r="I16" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J16" s="8">
+        <v>17300000</v>
+      </c>
+      <c r="K16" s="8">
+        <v>1730000</v>
+      </c>
+      <c r="L16" s="8">
+        <v>15570000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="10">
+        <v>141</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="11">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="10">
+        <v>4</v>
+      </c>
+      <c r="I17" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J17" s="8">
+        <v>14100000</v>
+      </c>
+      <c r="K17" s="8">
+        <v>1410000</v>
+      </c>
+      <c r="L17" s="8">
+        <v>12690000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="10">
+        <v>173</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="11">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="10">
+        <v>4</v>
+      </c>
+      <c r="I18" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J18" s="8">
+        <v>17300000</v>
+      </c>
+      <c r="K18" s="8">
+        <v>1730000</v>
+      </c>
+      <c r="L18" s="8">
+        <v>15570000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="10">
+        <v>141</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="11">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="10">
+        <v>4</v>
+      </c>
+      <c r="I19" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J19" s="8">
+        <v>14100000</v>
+      </c>
+      <c r="K19" s="8">
+        <v>1410000</v>
+      </c>
+      <c r="L19" s="8">
+        <v>12690000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="10">
+        <v>141</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="11">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="10">
+        <v>4</v>
+      </c>
+      <c r="I20" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J20" s="8">
+        <v>14100000</v>
+      </c>
+      <c r="K20" s="8">
+        <v>1410000</v>
+      </c>
+      <c r="L20" s="8">
+        <v>12690000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="10">
+        <v>141</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="11">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="10">
+        <v>4</v>
+      </c>
+      <c r="I21" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J21" s="8">
+        <v>14100000</v>
+      </c>
+      <c r="K21" s="8">
+        <v>1410000</v>
+      </c>
+      <c r="L21" s="8">
+        <v>12690000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="10">
+        <v>173</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="11">
+        <v>1</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="10">
+        <v>4</v>
+      </c>
+      <c r="I22" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J22" s="8">
+        <v>17300000</v>
+      </c>
+      <c r="K22" s="8">
+        <v>1730000</v>
+      </c>
+      <c r="L22" s="8">
+        <v>15570000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="10">
+        <v>141</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="11">
+        <v>1</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="10">
+        <v>4</v>
+      </c>
+      <c r="I23" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J23" s="8">
+        <v>14100000</v>
+      </c>
+      <c r="K23" s="8">
+        <v>1410000</v>
+      </c>
+      <c r="L23" s="8">
+        <v>12690000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="10">
+        <v>173</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="11">
+        <v>1</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="10">
+        <v>4</v>
+      </c>
+      <c r="I24" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J24" s="8">
+        <v>17300000</v>
+      </c>
+      <c r="K24" s="8">
+        <v>1730000</v>
+      </c>
+      <c r="L24" s="8">
+        <v>15570000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="10">
+        <v>141</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="11">
+        <v>1</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="10">
+        <v>4</v>
+      </c>
+      <c r="I25" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J25" s="8">
+        <v>14100000</v>
+      </c>
+      <c r="K25" s="8">
+        <v>1410000</v>
+      </c>
+      <c r="L25" s="8">
+        <v>12690000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="10">
+        <v>173</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="11">
+        <v>1</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="10">
+        <v>4</v>
+      </c>
+      <c r="I26" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J26" s="8">
+        <v>17300000</v>
+      </c>
+      <c r="K26" s="8">
+        <v>1730000</v>
+      </c>
+      <c r="L26" s="8">
+        <v>15570000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="10">
+        <v>141</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="11">
+        <v>1</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="10">
+        <v>4</v>
+      </c>
+      <c r="I27" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J27" s="8">
+        <v>14100000</v>
+      </c>
+      <c r="K27" s="8">
+        <v>1410000</v>
+      </c>
+      <c r="L27" s="8">
+        <v>12690000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="10">
+        <v>141</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="11">
+        <v>1</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="10">
+        <v>4</v>
+      </c>
+      <c r="I28" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J28" s="8">
+        <v>14100000</v>
+      </c>
+      <c r="K28" s="8">
+        <v>1410000</v>
+      </c>
+      <c r="L28" s="8">
+        <v>12690000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="10">
+        <v>141</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="11">
+        <v>1</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="10">
+        <v>4</v>
+      </c>
+      <c r="I29" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J29" s="8">
+        <v>14100000</v>
+      </c>
+      <c r="K29" s="8">
+        <v>1410000</v>
+      </c>
+      <c r="L29" s="8">
+        <v>12690000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="10">
+        <v>173</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="11">
+        <v>1</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="10">
+        <v>4</v>
+      </c>
+      <c r="I30" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J30" s="8">
+        <v>17300000</v>
+      </c>
+      <c r="K30" s="8">
+        <v>1730000</v>
+      </c>
+      <c r="L30" s="8">
+        <v>15570000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="10">
+        <v>173</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="11">
+        <v>1</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="10">
+        <v>4</v>
+      </c>
+      <c r="I31" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J31" s="8">
+        <v>17300000</v>
+      </c>
+      <c r="K31" s="8">
+        <v>1730000</v>
+      </c>
+      <c r="L31" s="8">
+        <v>15570000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="10">
+        <v>141</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="11">
+        <v>1</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="10">
+        <v>4</v>
+      </c>
+      <c r="I32" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J32" s="8">
+        <v>14100000</v>
+      </c>
+      <c r="K32" s="8">
+        <v>1410000</v>
+      </c>
+      <c r="L32" s="8">
+        <v>12690000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="10">
+        <v>141</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="11">
+        <v>1</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" s="10">
+        <v>4</v>
+      </c>
+      <c r="I33" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J33" s="8">
+        <v>14100000</v>
+      </c>
+      <c r="K33" s="8">
+        <v>1410000</v>
+      </c>
+      <c r="L33" s="8">
+        <v>12690000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="10">
+        <v>173</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="11">
+        <v>1</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" s="10">
+        <v>4</v>
+      </c>
+      <c r="I34" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J34" s="8">
+        <v>17300000</v>
+      </c>
+      <c r="K34" s="8">
+        <v>1730000</v>
+      </c>
+      <c r="L34" s="8">
+        <v>15570000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="10">
+        <v>173</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="11">
+        <v>1</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" s="10">
+        <v>4</v>
+      </c>
+      <c r="I35" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J35" s="8">
+        <v>17300000</v>
+      </c>
+      <c r="K35" s="8">
+        <v>1730000</v>
+      </c>
+      <c r="L35" s="8">
+        <v>15570000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="10">
+        <v>173</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="11">
+        <v>1</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="10">
+        <v>4</v>
+      </c>
+      <c r="I36" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J36" s="8">
+        <v>17300000</v>
+      </c>
+      <c r="K36" s="8">
+        <v>1730000</v>
+      </c>
+      <c r="L36" s="8">
+        <v>15570000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="10">
+        <v>141</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="11">
+        <v>1</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" s="10">
+        <v>4</v>
+      </c>
+      <c r="I37" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J37" s="8">
+        <v>14100000</v>
+      </c>
+      <c r="K37" s="8">
+        <v>1410000</v>
+      </c>
+      <c r="L37" s="8">
+        <v>12690000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="10">
+        <v>173</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" s="11">
+        <v>1</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" s="10">
+        <v>4</v>
+      </c>
+      <c r="I38" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J38" s="8">
+        <v>17300000</v>
+      </c>
+      <c r="K38" s="8">
+        <v>1730000</v>
+      </c>
+      <c r="L38" s="8">
+        <v>15570000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="10">
+        <v>141</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" s="11">
+        <v>1</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" s="10">
+        <v>4</v>
+      </c>
+      <c r="I39" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J39" s="8">
+        <v>14100000</v>
+      </c>
+      <c r="K39" s="8">
+        <v>1410000</v>
+      </c>
+      <c r="L39" s="8">
+        <v>12690000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="10">
+        <v>173</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="11">
+        <v>1</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" s="10">
+        <v>4</v>
+      </c>
+      <c r="I40" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J40" s="8">
+        <v>17300000</v>
+      </c>
+      <c r="K40" s="8">
+        <v>1730000</v>
+      </c>
+      <c r="L40" s="8">
+        <v>15570000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="10">
+        <v>141</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41" s="11">
+        <v>1</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" s="10">
+        <v>4</v>
+      </c>
+      <c r="I41" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J41" s="8">
+        <v>14100000</v>
+      </c>
+      <c r="K41" s="8">
+        <v>1410000</v>
+      </c>
+      <c r="L41" s="8">
+        <v>12690000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12">
-        <v>519</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="12">
-        <v>51900000</v>
-      </c>
-      <c r="K11" s="12">
-        <v>5190000</v>
-      </c>
-      <c r="L11" s="12">
-        <v>46710000</v>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12">
+        <v>5338</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="12">
+        <v>533800000</v>
+      </c>
+      <c r="K42" s="12">
+        <v>53380000</v>
+      </c>
+      <c r="L42" s="12">
+        <v>480420000</v>
       </c>
     </row>
   </sheetData>
@@ -1432,7 +3230,7 @@
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="J6:L6"/>
-    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A42:C42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
